--- a/CardGame/Luban/Datas/Skill.xlsx
+++ b/CardGame/Luban/Datas/Skill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -24,19 +24,43 @@
     <t>Id</t>
   </si>
   <si>
-    <t>CastCondition</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>EffectTimeKey</t>
+  </si>
+  <si>
+    <t>EffectTimeParams</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>SkillCastCondition#step=,</t>
+    <t>CastRule</t>
+  </si>
+  <si>
+    <t>CastCondition#default=0,0</t>
+  </si>
+  <si>
+    <t>CastResource#default=0,0</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>(list#sep=,),object</t>
   </si>
   <si>
     <t>##</t>
@@ -45,13 +69,25 @@
     <t>id</t>
   </si>
   <si>
+    <t>技能组</t>
+  </si>
+  <si>
+    <t>技能释放规则</t>
+  </si>
+  <si>
     <t>技能释放条件</t>
   </si>
   <si>
-    <t>技能组</t>
+    <t>技能消耗</t>
+  </si>
+  <si>
+    <t>表现Key</t>
   </si>
   <si>
     <t>1,0</t>
+  </si>
+  <si>
+    <t>FarAttack</t>
   </si>
   <si>
     <t>1,1</t>
@@ -988,28 +1024,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="6.875" customWidth="1"/>
-    <col min="8" max="8" width="7.875" customWidth="1"/>
-    <col min="9" max="9" width="15.25" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="16.875" customWidth="1"/>
-    <col min="13" max="13" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="7.875" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="16.875" customWidth="1"/>
+    <col min="14" max="14" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,154 +1058,191 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4">
         <v>10101</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>1010</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4"/>
+      <c r="G4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5">
         <v>10111</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>1011</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6">
         <v>10112</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>1011</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7">
         <v>10113</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>1011</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8">
         <v>10114</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>1011</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9">
         <v>10115</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>1011</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10">
         <v>10121</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>1012</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11">
         <v>10122</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>1012</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12">
         <v>10123</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>1012</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13">
         <v>10124</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>1012</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14">
         <v>10125</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>1012</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/CardGame/Luban/Datas/Skill.xlsx
+++ b/CardGame/Luban/Datas/Skill.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -30,16 +43,16 @@
     <t>Rule</t>
   </si>
   <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>EffectTimeKey</t>
-  </si>
-  <si>
-    <t>EffectTimeParams</t>
+    <t>Condition#default=0,0</t>
+  </si>
+  <si>
+    <t>Cost#default=0,0</t>
+  </si>
+  <si>
+    <t>TimelineKey</t>
+  </si>
+  <si>
+    <t>TimelineParams</t>
   </si>
   <si>
     <t>##type</t>
@@ -48,19 +61,19 @@
     <t>int</t>
   </si>
   <si>
-    <t>CastRule</t>
-  </si>
-  <si>
-    <t>CastCondition#default=0,0</t>
-  </si>
-  <si>
-    <t>CastResource#default=0,0</t>
+    <t>CastRule#sep=,</t>
+  </si>
+  <si>
+    <t>CastCondition#sep=,</t>
+  </si>
+  <si>
+    <t>CastResource#sep=,</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>(list#sep=,),object</t>
+    <t>array,string</t>
   </si>
   <si>
     <t>##</t>
@@ -81,7 +94,10 @@
     <t>技能消耗</t>
   </si>
   <si>
-    <t>表现Key</t>
+    <t>时间轴Key</t>
+  </si>
+  <si>
+    <t>参数</t>
   </si>
   <si>
     <t>1,0</t>
@@ -91,6 +107,9 @@
   </si>
   <si>
     <t>1,1</t>
+  </si>
+  <si>
+    <t>Hua</t>
   </si>
   <si>
     <t>1,3</t>
@@ -99,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -115,34 +134,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -156,14 +147,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,6 +191,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -253,7 +251,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,49 +287,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,121 +425,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,21 +478,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,6 +510,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,148 +583,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -716,52 +735,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1027,13 +1046,14 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="4" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
     <col min="5" max="5" width="26.25" customWidth="1"/>
     <col min="6" max="6" width="25.75" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
@@ -1097,7 +1117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1118,6 +1138,9 @@
       </c>
       <c r="G3" t="s">
         <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -1128,14 +1151,14 @@
         <v>1010</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4"/>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:7">
       <c r="B5">
         <v>10111</v>
       </c>
@@ -1143,7 +1166,10 @@
         <v>1011</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -1154,7 +1180,7 @@
         <v>1011</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -1165,7 +1191,7 @@
         <v>1011</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -1176,7 +1202,7 @@
         <v>1011</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1187,7 +1213,7 @@
         <v>1011</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -1198,7 +1224,7 @@
         <v>1012</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -1209,7 +1235,7 @@
         <v>1012</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -1220,7 +1246,7 @@
         <v>1012</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -1231,7 +1257,7 @@
         <v>1012</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -1242,7 +1268,7 @@
         <v>1012</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/CardGame/Luban/Datas/Skill.xlsx
+++ b/CardGame/Luban/Datas/Skill.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -49,10 +49,10 @@
     <t>Cost#default=0,0</t>
   </si>
   <si>
-    <t>TimelineKey</t>
-  </si>
-  <si>
-    <t>TimelineParams</t>
+    <t>EffectKey</t>
+  </si>
+  <si>
+    <t>*EffectValue</t>
   </si>
   <si>
     <t>##type</t>
@@ -67,13 +67,13 @@
     <t>CastCondition#sep=,</t>
   </si>
   <si>
-    <t>CastResource#sep=,</t>
+    <t>CostResource#sep=,</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>array,string</t>
+    <t>array,EventWarp</t>
   </si>
   <si>
     <t>##</t>
@@ -85,7 +85,7 @@
     <t>技能组</t>
   </si>
   <si>
-    <t>技能释放规则</t>
+    <t>释放回合，冷却回合</t>
   </si>
   <si>
     <t>技能释放条件</t>
@@ -97,22 +97,28 @@
     <t>时间轴Key</t>
   </si>
   <si>
+    <t>时间轴里的方法参数</t>
+  </si>
+  <si>
+    <t>方法名</t>
+  </si>
+  <si>
     <t>参数</t>
   </si>
   <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>FarAttack</t>
-  </si>
-  <si>
     <t>1,1</t>
   </si>
   <si>
-    <t>Hua</t>
-  </si>
-  <si>
-    <t>1,3</t>
+    <t>Shengtisong</t>
+  </si>
+  <si>
+    <t>CreateDamage</t>
+  </si>
+  <si>
+    <t>mFloat-1.26|mFloat-0.3|mFloat-0.3</t>
+  </si>
+  <si>
+    <t>对敌方随机3个英雄造成XX%魔法伤害，XX%概率让目标的点燃效果传播到敌方1个未被点燃的英雄，并由XX%概率清除目标1个增益状态。</t>
   </si>
 </sst>
 </file>
@@ -728,9 +734,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1043,29 +1052,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
-    <col min="6" max="6" width="25.75" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="7.875" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="16.875" customWidth="1"/>
-    <col min="14" max="14" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="40.625" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
+    <col min="12" max="12" width="16.875" customWidth="1"/>
+    <col min="13" max="13" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1087,11 +1095,12 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1113,11 +1122,12 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1139,26 +1149,23 @@
       <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4">
-        <v>10101</v>
-      </c>
-      <c r="C4">
-        <v>1010</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="4" ht="15" customHeight="1" spans="1:9">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="E4"/>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" ht="15" customHeight="1" spans="2:10">
       <c r="B5">
         <v>10111</v>
       </c>
@@ -1171,8 +1178,17 @@
       <c r="G5" t="s">
         <v>26</v>
       </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" customFormat="1" ht="15" customHeight="1" spans="2:10">
       <c r="B6">
         <v>10112</v>
       </c>
@@ -1182,8 +1198,20 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" customFormat="1" ht="15" customHeight="1" spans="2:10">
       <c r="B7">
         <v>10113</v>
       </c>
@@ -1193,8 +1221,20 @@
       <c r="D7" t="s">
         <v>25</v>
       </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" customFormat="1" ht="15" customHeight="1" spans="2:10">
       <c r="B8">
         <v>10114</v>
       </c>
@@ -1204,8 +1244,20 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" customFormat="1" ht="15" customHeight="1" spans="2:10">
       <c r="B9">
         <v>10115</v>
       </c>
@@ -1215,63 +1267,25 @@
       <c r="D9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10">
-        <v>10121</v>
-      </c>
-      <c r="C10">
-        <v>1012</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11">
-        <v>10122</v>
-      </c>
-      <c r="C11">
-        <v>1012</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12">
-        <v>10123</v>
-      </c>
-      <c r="C12">
-        <v>1012</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13">
-        <v>10124</v>
-      </c>
-      <c r="C13">
-        <v>1012</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14">
-        <v>10125</v>
-      </c>
-      <c r="C14">
-        <v>1012</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/CardGame/Luban/Datas/Skill.xlsx
+++ b/CardGame/Luban/Datas/Skill.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -106,7 +106,7 @@
     <t>参数</t>
   </si>
   <si>
-    <t>1,1</t>
+    <t>1,0</t>
   </si>
   <si>
     <t>Shengtisong</t>
@@ -115,10 +115,58 @@
     <t>CreateDamage</t>
   </si>
   <si>
-    <t>mFloat-1.26|mFloat-0.3|mFloat-0.3</t>
-  </si>
-  <si>
-    <t>对敌方随机3个英雄造成XX%魔法伤害，XX%概率让目标的点燃效果传播到敌方1个未被点燃的英雄，并由XX%概率清除目标1个增益状态。</t>
+    <t>mCreateDamageWarp-乘法#魔法#Random#3#1.26#0</t>
+  </si>
+  <si>
+    <t>对敌方随机3个英雄造成XX%魔法输出，XX%概率让目标的点燃效果传播到敌方1个未被点燃的英雄，并由XX%概率清除目标1个增益状态。</t>
+  </si>
+  <si>
+    <t>TransferBuff</t>
+  </si>
+  <si>
+    <t>mTransferBuffWarp-Ignite#0.3#1</t>
+  </si>
+  <si>
+    <t>RemoveBuff</t>
+  </si>
+  <si>
+    <t>mRemoveBuffWarp-随机Buff#NULL#0.3#1</t>
+  </si>
+  <si>
+    <t>mCreateDamageWarp-乘法#魔法#Random#3#1.51#0</t>
+  </si>
+  <si>
+    <t>mTransferBuffWarp-Ignite#0.4#1</t>
+  </si>
+  <si>
+    <t>mRemoveBuffWarp-随机Buff#NULL#0.4#1</t>
+  </si>
+  <si>
+    <t>mCreateDamageWarp-乘法#魔法#Random#3#1.8#0</t>
+  </si>
+  <si>
+    <t>mTransferBuffWarp-Ignite#0.5#1</t>
+  </si>
+  <si>
+    <t>mRemoveBuffWarp-随机Buff#NULL#0.5#1</t>
+  </si>
+  <si>
+    <t>mCreateDamageWarp-乘法#魔法#Random#3#1.88#0</t>
+  </si>
+  <si>
+    <t>mTransferBuffWarp-Ignite#0.55#1</t>
+  </si>
+  <si>
+    <t>mRemoveBuffWarp-随机Buff#NULL#0.55#1</t>
+  </si>
+  <si>
+    <t>mCreateDamageWarp-乘法#魔法#Random#3#1.95#0</t>
+  </si>
+  <si>
+    <t>mTransferBuffWarp-Ignite#0.6#1</t>
+  </si>
+  <si>
+    <t>mRemoveBuffWarp-随机Buff#NULL#0.6#1</t>
   </si>
 </sst>
 </file>
@@ -1052,22 +1100,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19.55" customWidth="1"/>
+    <col min="5" max="5" width="14.2833333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.0666666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="40.625" customWidth="1"/>
+    <col min="9" max="9" width="64.875" customWidth="1"/>
     <col min="10" max="10" width="18.125" customWidth="1"/>
     <col min="12" max="12" width="16.875" customWidth="1"/>
     <col min="13" max="13" width="23.25" customWidth="1"/>
@@ -1165,32 +1213,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="2:10">
-      <c r="B5">
+    <row r="5" ht="15" customHeight="1" spans="1:1">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="2:10">
+      <c r="B6">
         <v>10111</v>
-      </c>
-      <c r="C5">
-        <v>1011</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="15" customHeight="1" spans="2:10">
-      <c r="B6">
-        <v>10112</v>
       </c>
       <c r="C6">
         <v>1011</v>
@@ -1211,73 +1241,180 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15" customHeight="1" spans="2:10">
-      <c r="B7">
+    <row r="7" customFormat="1" ht="15" customHeight="1" spans="8:9">
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="15" customHeight="1" spans="8:9">
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1"/>
+    <row r="10" customFormat="1" ht="15" customHeight="1" spans="2:10">
+      <c r="B10">
+        <v>10112</v>
+      </c>
+      <c r="C10">
+        <v>1011</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="15" customHeight="1" spans="8:9">
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="15" customHeight="1" spans="8:9">
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1"/>
+    <row r="14" customFormat="1" ht="15" customHeight="1" spans="2:10">
+      <c r="B14">
         <v>10113</v>
       </c>
-      <c r="C7">
+      <c r="C14">
         <v>1011</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G14" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H14" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15" customHeight="1" spans="2:10">
-      <c r="B8">
+    <row r="15" customFormat="1" ht="15" customHeight="1" spans="8:9">
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="15" customHeight="1" spans="8:9">
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1"/>
+    <row r="18" customFormat="1" ht="15" customHeight="1" spans="2:10">
+      <c r="B18">
         <v>10114</v>
       </c>
-      <c r="C8">
+      <c r="C18">
         <v>1011</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D18" t="s">
         <v>25</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G18" t="s">
         <v>26</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H18" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="15" customHeight="1" spans="2:10">
-      <c r="B9">
+    <row r="19" customFormat="1" ht="15" customHeight="1" spans="8:9">
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="15" customHeight="1" spans="8:9">
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1"/>
+    <row r="22" customFormat="1" ht="15" customHeight="1" spans="2:10">
+      <c r="B22">
         <v>10115</v>
       </c>
-      <c r="C9">
+      <c r="C22">
         <v>1011</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D22" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G22" t="s">
         <v>26</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H22" t="s">
         <v>27</v>
       </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="8:9">
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9">
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/CardGame/Luban/Datas/Skill.xlsx
+++ b/CardGame/Luban/Datas/Skill.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -109,64 +109,76 @@
     <t>1,0</t>
   </si>
   <si>
+    <t>Mozhate_Attack</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
     <t>Shengtisong</t>
   </si>
   <si>
     <t>CreateDamage</t>
   </si>
   <si>
-    <t>mCreateDamageWarp-乘法#魔法#Random#3#1.26#0</t>
+    <t>mCreateDamageWarp-乘法#魔法#1.26#0#NULL</t>
   </si>
   <si>
     <t>对敌方随机3个英雄造成XX%魔法输出，XX%概率让目标的点燃效果传播到敌方1个未被点燃的英雄，并由XX%概率清除目标1个增益状态。</t>
   </si>
   <si>
-    <t>TransferBuff</t>
-  </si>
-  <si>
-    <t>mTransferBuffWarp-Ignite#0.3#1</t>
-  </si>
-  <si>
-    <t>RemoveBuff</t>
-  </si>
-  <si>
-    <t>mRemoveBuffWarp-随机Buff#NULL#0.3#1</t>
-  </si>
-  <si>
-    <t>mCreateDamageWarp-乘法#魔法#Random#3#1.51#0</t>
-  </si>
-  <si>
-    <t>mTransferBuffWarp-Ignite#0.4#1</t>
-  </si>
-  <si>
-    <t>mRemoveBuffWarp-随机Buff#NULL#0.4#1</t>
-  </si>
-  <si>
-    <t>mCreateDamageWarp-乘法#魔法#Random#3#1.8#0</t>
-  </si>
-  <si>
-    <t>mTransferBuffWarp-Ignite#0.5#1</t>
-  </si>
-  <si>
-    <t>mRemoveBuffWarp-随机Buff#NULL#0.5#1</t>
-  </si>
-  <si>
-    <t>mCreateDamageWarp-乘法#魔法#Random#3#1.88#0</t>
-  </si>
-  <si>
-    <t>mTransferBuffWarp-Ignite#0.55#1</t>
-  </si>
-  <si>
-    <t>mRemoveBuffWarp-随机Buff#NULL#0.55#1</t>
-  </si>
-  <si>
-    <t>mCreateDamageWarp-乘法#魔法#Random#3#1.95#0</t>
-  </si>
-  <si>
-    <t>mTransferBuffWarp-Ignite#0.6#1</t>
-  </si>
-  <si>
-    <t>mRemoveBuffWarp-随机Buff#NULL#0.6#1</t>
+    <t>AddBuff</t>
+  </si>
+  <si>
+    <t>mAddBuffTableIndex-1001</t>
+  </si>
+  <si>
+    <t>mCreateDamageWarp-乘法#魔法#1.51#0#NULL</t>
+  </si>
+  <si>
+    <t>mAddBuffTableIndex-1002</t>
+  </si>
+  <si>
+    <t>mCreateDamageWarp-乘法#魔法#1.8#0#NULL</t>
+  </si>
+  <si>
+    <t>mAddBuffTableIndex-1003</t>
+  </si>
+  <si>
+    <t>mCreateDamageWarp-乘法#魔法#1.88#0#NULL</t>
+  </si>
+  <si>
+    <t>mAddBuffTableIndex-1004</t>
+  </si>
+  <si>
+    <t>mCreateDamageWarp-乘法#魔法#1.95#0#NULL</t>
+  </si>
+  <si>
+    <t>mAddBuffTableIndex-1005</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>Anhunqu</t>
+  </si>
+  <si>
+    <t>mCreateDamageWarp-固定值#回血#0#50#mozhate_skill01_hit</t>
+  </si>
+  <si>
+    <t>复活己方1个英雄，并回复XX的生命，若无英雄阵亡，则为己方生命值最低的英雄恢复XX的生命。</t>
+  </si>
+  <si>
+    <t>mCreateDamageWarp-固定值#回血#0#60#mozhate_skill01_hit</t>
+  </si>
+  <si>
+    <t>mCreateDamageWarp-固定值#回血#0#70#mozhate_skill01_hit</t>
+  </si>
+  <si>
+    <t>mCreateDamageWarp-固定值#回血#0#80#mozhate_skill01_hit</t>
+  </si>
+  <si>
+    <t>mCreateDamageWarp-固定值#回血#0#90#mozhate_skill01_hit</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1218,12 +1230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="2:10">
+    <row r="6" ht="15" customHeight="1" spans="2:7">
       <c r="B6">
-        <v>10111</v>
+        <v>90011</v>
       </c>
       <c r="C6">
-        <v>1011</v>
+        <v>9001</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -1231,62 +1243,61 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="7" ht="15" customHeight="1"/>
+    <row r="8" ht="15" customHeight="1" spans="2:10">
+      <c r="B8">
+        <v>10111</v>
+      </c>
+      <c r="C8">
+        <v>1011</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="I6" t="s">
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="J6" t="s">
+      <c r="H8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" customFormat="1" ht="15" customHeight="1" spans="8:9">
-      <c r="H7" t="s">
+      <c r="I8" t="s">
         <v>30</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15" customHeight="1" spans="8:9">
-      <c r="H8" t="s">
+    <row r="9" customFormat="1" ht="15" customHeight="1" spans="8:9">
+      <c r="H9" t="s">
         <v>32</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1"/>
-    <row r="10" customFormat="1" ht="15" customHeight="1" spans="2:10">
-      <c r="B10">
+    <row r="10" ht="15" customHeight="1"/>
+    <row r="11" customFormat="1" ht="15" customHeight="1" spans="2:10">
+      <c r="B11">
         <v>10112</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>1011</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="I10" t="s">
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
         <v>34</v>
       </c>
-      <c r="J10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="15" customHeight="1" spans="8:9">
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="s">
-        <v>35</v>
+      <c r="J11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="15" customHeight="1" spans="8:9">
@@ -1294,7 +1305,7 @@
         <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1"/>
@@ -1306,114 +1317,205 @@
         <v>1011</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15" customHeight="1" spans="8:9">
       <c r="H15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1"/>
+    <row r="17" customFormat="1" ht="15" customHeight="1" spans="2:10">
+      <c r="B17">
+        <v>10114</v>
+      </c>
+      <c r="C17">
+        <v>1011</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" customFormat="1" ht="15" customHeight="1" spans="8:9">
-      <c r="H16" t="s">
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="15" customHeight="1" spans="8:9">
+      <c r="H18" t="s">
         <v>32</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1"/>
-    <row r="18" customFormat="1" ht="15" customHeight="1" spans="2:10">
-      <c r="B18">
-        <v>10114</v>
-      </c>
-      <c r="C18">
+    <row r="19" ht="15" customHeight="1"/>
+    <row r="20" customFormat="1" ht="15" customHeight="1" spans="2:10">
+      <c r="B20">
+        <v>10115</v>
+      </c>
+      <c r="C20">
         <v>1011</v>
       </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="I18" t="s">
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
         <v>40</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9">
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23">
+        <v>10211</v>
+      </c>
+      <c r="C23">
+        <v>1021</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" ht="15" customHeight="1" spans="8:9">
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" ht="15" customHeight="1" spans="8:9">
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1"/>
-    <row r="22" customFormat="1" ht="15" customHeight="1" spans="2:10">
-      <c r="B22">
-        <v>10115</v>
-      </c>
-      <c r="C22">
-        <v>1011</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="8:9">
-      <c r="H23" t="s">
-        <v>30</v>
       </c>
       <c r="I23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="8:9">
-      <c r="H24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25">
+        <v>10212</v>
+      </c>
+      <c r="C25">
+        <v>1021</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27">
+        <v>10213</v>
+      </c>
+      <c r="C27">
+        <v>1021</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29">
+        <v>10214</v>
+      </c>
+      <c r="C29">
+        <v>1021</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31">
+        <v>10215</v>
+      </c>
+      <c r="C31">
+        <v>1021</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" t="s">
         <v>45</v>
       </c>
     </row>
